--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>499.7004451473545</v>
+        <v>2300.378011969797</v>
       </c>
       <c r="R2">
-        <v>499.7004451473545</v>
+        <v>20703.40210772818</v>
       </c>
       <c r="S2">
-        <v>0.02671322881939318</v>
+        <v>0.08897106403242809</v>
       </c>
       <c r="T2">
-        <v>0.02671322881939318</v>
+        <v>0.0889710640324281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>1041.820807348425</v>
+        <v>3905.252088573384</v>
       </c>
       <c r="R3">
-        <v>1041.820807348425</v>
+        <v>35147.26879716046</v>
       </c>
       <c r="S3">
-        <v>0.05569416214407543</v>
+        <v>0.151042320795665</v>
       </c>
       <c r="T3">
-        <v>0.05569416214407543</v>
+        <v>0.151042320795665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>447.0892574272978</v>
+        <v>1679.840430426407</v>
       </c>
       <c r="R4">
-        <v>447.0892574272978</v>
+        <v>15118.56387383766</v>
       </c>
       <c r="S4">
-        <v>0.02390071442266999</v>
+        <v>0.06497070904088074</v>
       </c>
       <c r="T4">
-        <v>0.02390071442266999</v>
+        <v>0.06497070904088076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>1532.220849673499</v>
+        <v>1898.460041838858</v>
       </c>
       <c r="R5">
-        <v>1532.220849673499</v>
+        <v>17086.14037654972</v>
       </c>
       <c r="S5">
-        <v>0.0819102055174343</v>
+        <v>0.07342619737562889</v>
       </c>
       <c r="T5">
-        <v>0.0819102055174343</v>
+        <v>0.07342619737562889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>3194.51298902127</v>
+        <v>3222.93336351089</v>
       </c>
       <c r="R6">
-        <v>3194.51298902127</v>
+        <v>29006.40027159801</v>
       </c>
       <c r="S6">
-        <v>0.1707738251405491</v>
+        <v>0.1246524741434284</v>
       </c>
       <c r="T6">
-        <v>0.1707738251405491</v>
+        <v>0.1246524741434283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>1370.900283455099</v>
+        <v>1386.341686990439</v>
       </c>
       <c r="R7">
-        <v>1370.900283455099</v>
+        <v>12477.07518291395</v>
       </c>
       <c r="S7">
-        <v>0.07328625242610699</v>
+        <v>0.05361914188113451</v>
       </c>
       <c r="T7">
-        <v>0.07328625242610699</v>
+        <v>0.05361914188113451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H8">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>2668.571140185048</v>
+        <v>3343.778293121482</v>
       </c>
       <c r="R8">
-        <v>2668.571140185048</v>
+        <v>30094.00463809334</v>
       </c>
       <c r="S8">
-        <v>0.1426577706321052</v>
+        <v>0.1293263590068868</v>
       </c>
       <c r="T8">
-        <v>0.1426577706321052</v>
+        <v>0.1293263590068868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H9">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>5563.679133634674</v>
+        <v>5676.587541261225</v>
       </c>
       <c r="R9">
-        <v>5563.679133634674</v>
+        <v>51089.28787135102</v>
       </c>
       <c r="S9">
-        <v>0.297425858267225</v>
+        <v>0.2195517567074828</v>
       </c>
       <c r="T9">
-        <v>0.297425858267225</v>
+        <v>0.2195517567074828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H10">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>2387.609418889801</v>
+        <v>2441.778672000893</v>
       </c>
       <c r="R10">
-        <v>2387.609418889801</v>
+        <v>21976.00804800804</v>
       </c>
       <c r="S10">
-        <v>0.127637982630441</v>
+        <v>0.09443997701646482</v>
       </c>
       <c r="T10">
-        <v>0.127637982630441</v>
+        <v>0.09443997701646482</v>
       </c>
     </row>
   </sheetData>
